--- a/Hometask3/GDD&GameBalance.xlsx
+++ b/Hometask3/GDD&GameBalance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Утверждение из ГДД</t>
   </si>
@@ -62,6 +62,213 @@
   </si>
   <si>
     <t xml:space="preserve">В противоречии можно записать эту формулировку, так как если просто нажать на экран — не должно появляться ножниц. Ножницы должны появляться только в районе роста плюща</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Босс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Команда, владеющая одной из территорий, имеет возможность организовать турнир для соло игроков, используя монетки из командного банка. Организовать турнир может Администратор команды, выбрав на карте территорию, на которой он будет организован</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Написано, что ТОЛЬКО администратор команды может организовывать турниры. «Отображается только Администратору команды, владеющей территорией». В первом же предложении описано так, будто бы еще и игроки из команды могут организовать турнир, используя монеты из командного банка. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здесь все кристально ясно, но можно прикопаться к словам. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кнопка для организации турнира скрывается с карты территорий.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Следует уточнить, что у администратора кнопка скрывается.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кнопки участия отображаются только соло игрокам и, содержат класс и тип автомобиля для участия.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В одном месте написано так: «Соло игроки получают…., если одна из их машин подходит для участия в данном турнире». Судя по предложению из левого столбца кнопки отображаются ВСЕМ соло-игрокам вне зависимости от того есть ли у них подходящие параметры автомобилей или нет.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тут тоже можно прикопаться к формулировке…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если автомобилей несколько, то список скролится по горизонтали, если подходящих автомобилей нет, то вместо списка отображается надпись “нет подходящих автомобилей в гараже” и кнопка участия не активна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Может не стоит предлагать зайти на турнир игрокам без нужной категории машины? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматически выбирается подходящая машина и переносит игрока на экран участия в турнире, где у него указано текущее место в турнире, количество попыток, кнопка участвовать и машина.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предложение «На экране участия отображается название территории, на которой проходит турнир, тип и класс необходимого авто и таймер жизни турнира, содержащий часы, минуты и секунды». Первое, к чему можно придраться, - это «подтверждение участия» или все же «экран участия» разное понимание одного и второго. Если исходить из первого замечания, то вторым будет — разность отображаемых элементов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здесь не совсем понятно к чему именно придираться. Но…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описание категории «Битва с Боссом» до старта гонки экран содержит: … не указано о машине игрока</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«На экране сражения находится машина Босса, его ХП, машина игрока, сайдбар со списком участников, выпадающими предметами и кнопкой начала заезда».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">И вот вопрос, что из двух утверждений является истиной?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Показываем уменьшение хп босса анимацией. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Предыдущий результат минус результат заезда.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">«После каждого заезда из этих очков, вычитается </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">количество затраченного топлива + разница во времени, потраченном на заезд между Боссом и игроком</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 1 очко за каждую 0,1 секунду. 0, если победитель заезда Босс».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">команда владелец территории уничтожает и создает нового босса раньше, чем другие команды его уничтожают.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Босс существует отдельно для каждой команды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не совсем понимаю, если босс для каждой команды один, то как кто-то может уничтожить его раньше?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Все полученные награды команды </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">получает только владелец территории,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> на которой проходили соревнования.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">«...вознаграждение в виде предметов, случайным образом распределенных </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">между участниками битвы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">».</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Выводятся предметы, которые игрок не забрал.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полагаю, что такого быть не может. Награды же присылаются на почту.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В общем, не совсем понятно. В одном месте написано, что предметы прилетают на почту. В другом, что только уведомления приходят на почту. В третьем, что награды улетают на склад. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каждый предмет привязывается к территории и выпадает только в сражениях с боссом на территории, к которой привязан. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«2 предмета из группы, можно получить за победу в турнире территорий». Либо предметы выпадают ТОЛЬКО в сражениях с боссом, либо два из них все же можно получить за турнир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В одной группе  27 предметов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего 27 предметов территории, а бонус экипировки дается только до 24 предметов. </t>
   </si>
 </sst>
 </file>
@@ -200,11 +407,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B6:B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.39"/>
@@ -264,6 +471,127 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -271,6 +599,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:C6"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
